--- a/doc/task11/scrum_v02.xlsx
+++ b/doc/task11/scrum_v02.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17024"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" firstSheet="2" activeTab="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -120,10 +120,10 @@
     <t>Als Health Visitor möchte ich die Checkliste zu meinem aktuellen Termin abrufen und Tasks als erledigt markieren können</t>
   </si>
   <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Als Health Visitor möchte ich einen Report für einen Termin erfassen können.</t>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>Als Health Visitor möchte ich einen Rapport für einen Termin erfassen können.</t>
   </si>
   <si>
     <t>Medikamente bestätigen</t>
@@ -165,10 +165,10 @@
     <t>Als Health Visitor möchte ich Notfallkontakte für einen Patienten anzeigen lassen und diese direkt kontaktieren können</t>
   </si>
   <si>
-    <t>Report bearbeiten</t>
-  </si>
-  <si>
-    <t>Als Health Visitor möchte ich einen Report bearbeiten können</t>
+    <t>Rapport bearbeiten</t>
+  </si>
+  <si>
+    <t>Als Health Visitor möchte ich einen Rapport bearbeiten können</t>
   </si>
   <si>
     <t>Reporte abrufen</t>
@@ -198,6 +198,18 @@
     <t>in Arbeit</t>
   </si>
   <si>
+    <t>Refactoring</t>
+  </si>
+  <si>
+    <t>Als Entwickler möchte ich eine aufgeräumte Projektstruktur und Codebase haben</t>
+  </si>
+  <si>
+    <t>Projektmanagement</t>
+  </si>
+  <si>
+    <t>Backlog pflegen, Sprint planen, Koordination</t>
+  </si>
+  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -225,16 +237,16 @@
     <t>suter1</t>
   </si>
   <si>
+    <t>resolved</t>
+  </si>
+  <si>
     <t>99.2</t>
   </si>
   <si>
     <t>Initial Setup</t>
   </si>
   <si>
-    <t>Alle Basisinformationen einrichten für die anschliessende Implementation. Dies umfasst insbesondere die Datenbank o.ä. für Datenpersistenz und die Projektstruktur mit Vaadin (mit Berücksichtigung des Repository Pattern)</t>
-  </si>
-  <si>
-    <t>resolved</t>
+    <t>Alle Basisinformationen einrichten für die anschliessende Implementation. Dies umfasst insbesondere die Datenbank o.ä. für Datenpersistenz und die Projektstruktur mit Vaadin.</t>
   </si>
   <si>
     <t>9.1</t>
@@ -249,13 +261,103 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>Mittels Navigation "Aktueller Termin" wird die Termin Detailsansicht geöffnet mit folgenden Informationen und Funktionen (Dummy Daten verwenden wo noch nicht implementiert): Ankunft bestätigen, Kurzbeschrieb, Rapport erfassen, Checkliste, Notfallkontakte aufrufen</t>
+    <t>Mittels Navigation "Aktueller Termin" wird die Termin Detailsansicht geöffnet mit folgenden Informationen und Funktionen (Dummy Daten verwenden wo noch nicht implementiert): Ankunft bestätigen, Kurzbeschrieb, Rapport erfassen, Checkliste</t>
   </si>
   <si>
     <t>Termin</t>
   </si>
   <si>
     <t>resolved ohne daten</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>Passwort Validator</t>
+  </si>
+  <si>
+    <t>Data Validator package erstellen und Data Validator dorthin zügeln</t>
+  </si>
+  <si>
+    <t>98.1</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>UML Klassendiagramme</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Ankunft bestätigen persistieren (State Pattern)</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Rapport persistieren</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Medikamentenliste darstellen mit dummy Daten</t>
+  </si>
+  <si>
+    <t>hausr1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Termine heute auflisten mit dummy Daten</t>
+  </si>
+  <si>
+    <t>audf1</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Termine heute klickbar zu gleicher Ansicht wie Aktueller Termin</t>
+  </si>
+  <si>
+    <t>Home und Zurück Button in Header</t>
+  </si>
+  <si>
+    <t>Patientliste mit dummy Daten</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Patientliste Notfallkontakte anzeigen bei klick</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>Notfallkontakt Button auf Dashboard</t>
+  </si>
+  <si>
+    <t>Dummy Daten aufbereiten</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Termin Detail Task / Checkliste</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>Allgemeine Notfallkontakte anzeigen</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint </t>
@@ -655,7 +757,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -744,10 +846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1088,10 +1190,44 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
       <c r="E17">
-        <f>SUM(E2:E16)</f>
-        <v>140</v>
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30">
+      <c r="A18">
+        <v>98</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1136,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1145,13 +1281,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -1171,22 +1307,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1194,25 +1333,37 @@
       <c r="I2">
         <v>2</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="L2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="105">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>64</v>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -1220,13 +1371,19 @@
       <c r="I3">
         <v>8</v>
       </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="90">
       <c r="A4" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1235,10 +1392,16 @@
         <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -1246,13 +1409,19 @@
       <c r="I4">
         <v>16</v>
       </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
       <c r="L4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="120">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="105">
       <c r="A5" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1261,10 +1430,13 @@
         <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -1272,8 +1444,376 @@
       <c r="I5">
         <v>8</v>
       </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30">
+      <c r="A6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30">
+      <c r="A7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30">
+      <c r="A9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30">
+      <c r="A11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30">
+      <c r="A13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30">
+      <c r="A14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30">
+      <c r="A17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1304,16 +1844,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/doc/task11/scrum_v02.xlsx
+++ b/doc/task11/scrum_v02.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19365" windowHeight="5865" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <customWorkbookViews>
     <customWorkbookView name="Raphael Suter - Persönliche Ansicht" guid="{B138B3DD-F60C-400A-A386-DA8CE3FC6E3C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="2"/>
   </customWorkbookViews>
@@ -375,8 +376,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,14 +761,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.350000000000001" customHeight="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -778,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -789,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -800,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -811,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -822,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -852,7 +853,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
@@ -864,7 +865,7 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -890,7 +891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -910,7 +911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -930,7 +931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -950,7 +951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -970,7 +971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -990,7 +991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>99</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>98</v>
       </c>
@@ -1247,11 +1248,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -1267,7 +1268,7 @@
     <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="44.25" customHeight="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>65</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="75">
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>71</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="90">
+    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="105">
+    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>77</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>81</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>84</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>86</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>89</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>91</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>94</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>95</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>102</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>104</v>
       </c>
@@ -1752,11 +1753,14 @@
       <c r="I18">
         <v>1</v>
       </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
       <c r="L18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>107</v>
       </c>
@@ -1796,7 +1800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -1835,14 +1839,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>111</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
